--- a/biology/Médecine/L'Affaire_collective/L'Affaire_collective.xlsx
+++ b/biology/Médecine/L'Affaire_collective/L'Affaire_collective.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Affaire_collective</t>
+          <t>L'Affaire_collective</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Affaire collective (Colectiv) est un film documentaire roumano-luxembourgeois écrit et réalisé par Alexander Nanau. Ce documentaire tourne autour d'un groupe de journalistes travaillant dans un journal roumain qui investigue sur une fraude liée à la santé publique du pays, à la corruption et aux problèmes d'administration.
-Le film est diffusé pour la première fois à la Mostra de Venise 2019. Ce documentaire est acclamé par la critique[1],[2]. Il se retrouve nommé aux Oscars du cinéma 2021 dans les catégories meilleur documentaire et meilleur film international[3].
+Le film est diffusé pour la première fois à la Mostra de Venise 2019. Ce documentaire est acclamé par la critique,. Il se retrouve nommé aux Oscars du cinéma 2021 dans les catégories meilleur documentaire et meilleur film international.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Affaire_collective</t>
+          <t>L'Affaire_collective</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la suite d'un incendie survenu dans une boîte de nuit de Bucarest, des dizaines de personnes vont mourir alors que leurs blessures n'auraient pas dû les mettre en danger. Un groupe de journaliste va décider de prendre cette affaire en main et de faire une investigation qui va mettre en lumière de nombreux problèmes de corruption dans le système de santé publique roumain.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Affaire_collective</t>
+          <t>L'Affaire_collective</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb. 
 Titre original : Colectiv
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Affaire_collective</t>
+          <t>L'Affaire_collective</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,8 +610,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-En France, le site Allociné recense une moyenne des critiques presse de 3,8/5[4].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné recense une moyenne des critiques presse de 3,8/5.
 </t>
         </is>
       </c>
